--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>ARN</t>
@@ -441,27 +446,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>PKV</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>THL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>AZC</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PKV</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>SDU</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>STL</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>THL</t>
         </is>
       </c>
     </row>
@@ -475,19 +480,19 @@
         <v>68</v>
       </c>
       <c r="C2" t="n">
+        <v>330</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44</v>
+      </c>
+      <c r="E2" t="n">
+        <v>45</v>
+      </c>
+      <c r="F2" t="n">
         <v>580</v>
       </c>
-      <c r="D2" t="n">
-        <v>330</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>73</v>
-      </c>
-      <c r="F2" t="n">
-        <v>44</v>
-      </c>
-      <c r="G2" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -500,19 +505,19 @@
         <v>103</v>
       </c>
       <c r="C3" t="n">
+        <v>345</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45</v>
+      </c>
+      <c r="E3" t="n">
+        <v>92</v>
+      </c>
+      <c r="F3" t="n">
         <v>625</v>
       </c>
-      <c r="D3" t="n">
-        <v>345</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>84</v>
-      </c>
-      <c r="F3" t="n">
-        <v>45</v>
-      </c>
-      <c r="G3" t="n">
-        <v>92</v>
       </c>
     </row>
     <row r="4">
@@ -525,19 +530,19 @@
         <v>174</v>
       </c>
       <c r="C4" t="n">
+        <v>345</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45</v>
+      </c>
+      <c r="E4" t="n">
+        <v>152</v>
+      </c>
+      <c r="F4" t="n">
         <v>674</v>
       </c>
-      <c r="D4" t="n">
-        <v>345</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>86</v>
-      </c>
-      <c r="F4" t="n">
-        <v>45</v>
-      </c>
-      <c r="G4" t="n">
-        <v>152</v>
       </c>
     </row>
     <row r="5">
@@ -550,19 +555,19 @@
         <v>159</v>
       </c>
       <c r="C5" t="n">
+        <v>459</v>
+      </c>
+      <c r="D5" t="n">
+        <v>208</v>
+      </c>
+      <c r="E5" t="n">
+        <v>269</v>
+      </c>
+      <c r="F5" t="n">
         <v>756</v>
       </c>
-      <c r="D5" t="n">
-        <v>459</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>93</v>
-      </c>
-      <c r="F5" t="n">
-        <v>208</v>
-      </c>
-      <c r="G5" t="n">
-        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,6 +570,31 @@
         <v>93</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>20240227</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>178</v>
+      </c>
+      <c r="C6" t="n">
+        <v>228</v>
+      </c>
+      <c r="D6" t="n">
+        <v>87</v>
+      </c>
+      <c r="E6" t="n">
+        <v>165</v>
+      </c>
+      <c r="F6" t="n">
+        <v>308</v>
+      </c>
+      <c r="G6" t="n">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,31 @@
         <v>64</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>20240228</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>305</v>
+      </c>
+      <c r="C7" t="n">
+        <v>256</v>
+      </c>
+      <c r="D7" t="n">
+        <v>78</v>
+      </c>
+      <c r="E7" t="n">
+        <v>139</v>
+      </c>
+      <c r="F7" t="n">
+        <v>241</v>
+      </c>
+      <c r="G7" t="n">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,6 +620,56 @@
         <v>61</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>20240229</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>120</v>
+      </c>
+      <c r="C8" t="n">
+        <v>176</v>
+      </c>
+      <c r="D8" t="n">
+        <v>76</v>
+      </c>
+      <c r="E8" t="n">
+        <v>179</v>
+      </c>
+      <c r="F8" t="n">
+        <v>223</v>
+      </c>
+      <c r="G8" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>20240301</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>136</v>
+      </c>
+      <c r="C9" t="n">
+        <v>347</v>
+      </c>
+      <c r="D9" t="n">
+        <v>94</v>
+      </c>
+      <c r="E9" t="n">
+        <v>122</v>
+      </c>
+      <c r="F9" t="n">
+        <v>323</v>
+      </c>
+      <c r="G9" t="n">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,56 @@
         <v>114</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>20240304</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>109</v>
+      </c>
+      <c r="C10" t="n">
+        <v>265</v>
+      </c>
+      <c r="D10" t="n">
+        <v>84</v>
+      </c>
+      <c r="E10" t="n">
+        <v>133</v>
+      </c>
+      <c r="F10" t="n">
+        <v>214</v>
+      </c>
+      <c r="G10" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>20240305</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>193</v>
+      </c>
+      <c r="C11" t="n">
+        <v>449</v>
+      </c>
+      <c r="D11" t="n">
+        <v>69</v>
+      </c>
+      <c r="E11" t="n">
+        <v>123</v>
+      </c>
+      <c r="F11" t="n">
+        <v>248</v>
+      </c>
+      <c r="G11" t="n">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,6 +720,31 @@
         <v>72</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>20240306</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>104</v>
+      </c>
+      <c r="C12" t="n">
+        <v>496</v>
+      </c>
+      <c r="D12" t="n">
+        <v>135</v>
+      </c>
+      <c r="E12" t="n">
+        <v>182</v>
+      </c>
+      <c r="F12" t="n">
+        <v>282</v>
+      </c>
+      <c r="G12" t="n">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,31 @@
         <v>77</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>20240307</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>166</v>
+      </c>
+      <c r="C13" t="n">
+        <v>310</v>
+      </c>
+      <c r="D13" t="n">
+        <v>84</v>
+      </c>
+      <c r="E13" t="n">
+        <v>25</v>
+      </c>
+      <c r="F13" t="n">
+        <v>189</v>
+      </c>
+      <c r="G13" t="n">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,6 +770,31 @@
         <v>67</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>20240308</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>116</v>
+      </c>
+      <c r="C14" t="n">
+        <v>311</v>
+      </c>
+      <c r="D14" t="n">
+        <v>70</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" t="n">
+        <v>213</v>
+      </c>
+      <c r="G14" t="n">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +795,31 @@
         <v>58</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>20240312</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>74</v>
+      </c>
+      <c r="C15" t="n">
+        <v>241</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19</v>
+      </c>
+      <c r="F15" t="n">
+        <v>110</v>
+      </c>
+      <c r="G15" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,6 +820,31 @@
         <v>50</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>20240313</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>240</v>
+      </c>
+      <c r="C16" t="n">
+        <v>255</v>
+      </c>
+      <c r="D16" t="n">
+        <v>17</v>
+      </c>
+      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" t="n">
+        <v>123</v>
+      </c>
+      <c r="G16" t="n">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,6 +845,31 @@
         <v>56</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>20240315</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>110</v>
+      </c>
+      <c r="C17" t="n">
+        <v>340</v>
+      </c>
+      <c r="D17" t="n">
+        <v>21</v>
+      </c>
+      <c r="E17" t="n">
+        <v>37</v>
+      </c>
+      <c r="F17" t="n">
+        <v>342</v>
+      </c>
+      <c r="G17" t="n">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,6 +870,31 @@
         <v>67</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>20240318</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>153</v>
+      </c>
+      <c r="C18" t="n">
+        <v>263</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" t="n">
+        <v>184</v>
+      </c>
+      <c r="F18" t="n">
+        <v>211</v>
+      </c>
+      <c r="G18" t="n">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -895,6 +895,56 @@
         <v>64</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>20240319</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>78</v>
+      </c>
+      <c r="C19" t="n">
+        <v>398</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>93</v>
+      </c>
+      <c r="F19" t="n">
+        <v>179</v>
+      </c>
+      <c r="G19" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>20240320</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>69</v>
+      </c>
+      <c r="C20" t="n">
+        <v>207</v>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="n">
+        <v>109</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,476 +473,326 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20240221</t>
+          <t>20240301</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="C2" t="n">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="F2" t="n">
-        <v>580</v>
+        <v>323</v>
       </c>
       <c r="G2" t="n">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>20240222</t>
+          <t>20240304</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C3" t="n">
-        <v>345</v>
+        <v>265</v>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="E3" t="n">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="F3" t="n">
-        <v>625</v>
+        <v>214</v>
       </c>
       <c r="G3" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>20240223</t>
+          <t>20240305</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="C4" t="n">
-        <v>345</v>
+        <v>449</v>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E4" t="n">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="F4" t="n">
-        <v>674</v>
+        <v>248</v>
       </c>
       <c r="G4" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>20240226</t>
+          <t>20240306</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="C5" t="n">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="D5" t="n">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="E5" t="n">
-        <v>269</v>
+        <v>182</v>
       </c>
       <c r="F5" t="n">
-        <v>756</v>
+        <v>282</v>
       </c>
       <c r="G5" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>20240227</t>
+          <t>20240307</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C6" t="n">
-        <v>228</v>
+        <v>310</v>
       </c>
       <c r="D6" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E6" t="n">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>308</v>
+        <v>189</v>
       </c>
       <c r="G6" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>20240228</t>
+          <t>20240308</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="C7" t="n">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="D7" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="G7" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>20240229</t>
+          <t>20240312</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="C8" t="n">
-        <v>176</v>
+        <v>241</v>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="G8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>20240301</t>
+          <t>20240313</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="C9" t="n">
-        <v>347</v>
+        <v>255</v>
       </c>
       <c r="D9" t="n">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>323</v>
+        <v>123</v>
       </c>
       <c r="G9" t="n">
-        <v>114</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>20240304</t>
+          <t>20240315</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" t="n">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="D10" t="n">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="F10" t="n">
-        <v>214</v>
+        <v>342</v>
       </c>
       <c r="G10" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>20240305</t>
+          <t>20240318</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C11" t="n">
-        <v>449</v>
+        <v>263</v>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="F11" t="n">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="G11" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>20240306</t>
+          <t>20240319</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C12" t="n">
-        <v>496</v>
+        <v>398</v>
       </c>
       <c r="D12" t="n">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="F12" t="n">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c r="G12" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>20240307</t>
+          <t>20240320</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="C13" t="n">
-        <v>310</v>
+        <v>207</v>
       </c>
       <c r="D13" t="n">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="F13" t="n">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>20240308</t>
+          <t>20240321</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="D14" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="F14" t="n">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="G14" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>20240312</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>74</v>
-      </c>
-      <c r="C15" t="n">
-        <v>241</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11</v>
-      </c>
-      <c r="E15" t="n">
-        <v>19</v>
-      </c>
-      <c r="F15" t="n">
-        <v>110</v>
-      </c>
-      <c r="G15" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>20240313</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>240</v>
-      </c>
-      <c r="C16" t="n">
-        <v>255</v>
-      </c>
-      <c r="D16" t="n">
-        <v>17</v>
-      </c>
-      <c r="E16" t="n">
-        <v>20</v>
-      </c>
-      <c r="F16" t="n">
-        <v>123</v>
-      </c>
-      <c r="G16" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>20240315</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>110</v>
-      </c>
-      <c r="C17" t="n">
-        <v>340</v>
-      </c>
-      <c r="D17" t="n">
-        <v>21</v>
-      </c>
-      <c r="E17" t="n">
-        <v>37</v>
-      </c>
-      <c r="F17" t="n">
-        <v>342</v>
-      </c>
-      <c r="G17" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>20240318</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>153</v>
-      </c>
-      <c r="C18" t="n">
-        <v>263</v>
-      </c>
-      <c r="D18" t="n">
-        <v>20</v>
-      </c>
-      <c r="E18" t="n">
-        <v>184</v>
-      </c>
-      <c r="F18" t="n">
-        <v>211</v>
-      </c>
-      <c r="G18" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>20240319</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>78</v>
-      </c>
-      <c r="C19" t="n">
-        <v>398</v>
-      </c>
-      <c r="D19" t="n">
-        <v>17</v>
-      </c>
-      <c r="E19" t="n">
-        <v>93</v>
-      </c>
-      <c r="F19" t="n">
-        <v>179</v>
-      </c>
-      <c r="G19" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>20240320</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>69</v>
-      </c>
-      <c r="C20" t="n">
-        <v>207</v>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="n">
-        <v>109</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +795,31 @@
         <v>47</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>20240322</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>62</v>
+      </c>
+      <c r="C15" t="n">
+        <v>340</v>
+      </c>
+      <c r="D15" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>79</v>
+      </c>
+      <c r="F15" t="n">
+        <v>156</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,6 +820,31 @@
         <v>55</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>20240325</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>108</v>
+      </c>
+      <c r="C16" t="n">
+        <v>114</v>
+      </c>
+      <c r="D16" t="n">
+        <v>35</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88</v>
+      </c>
+      <c r="F16" t="n">
+        <v>153</v>
+      </c>
+      <c r="G16" t="n">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,6 +845,31 @@
         <v>55</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>20240326</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>75</v>
+      </c>
+      <c r="C17" t="n">
+        <v>74</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>73</v>
+      </c>
+      <c r="F17" t="n">
+        <v>134</v>
+      </c>
+      <c r="G17" t="n">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,6 +870,31 @@
         <v>56</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>20240327</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>76</v>
+      </c>
+      <c r="C18" t="n">
+        <v>163</v>
+      </c>
+      <c r="D18" t="n">
+        <v>32</v>
+      </c>
+      <c r="E18" t="n">
+        <v>74</v>
+      </c>
+      <c r="F18" t="n">
+        <v>148</v>
+      </c>
+      <c r="G18" t="n">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -895,6 +895,31 @@
         <v>68</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>20240328</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>65</v>
+      </c>
+      <c r="C19" t="n">
+        <v>83</v>
+      </c>
+      <c r="D19" t="n">
+        <v>30</v>
+      </c>
+      <c r="E19" t="n">
+        <v>92</v>
+      </c>
+      <c r="F19" t="n">
+        <v>173</v>
+      </c>
+      <c r="G19" t="n">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,451 +473,26 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20240301</t>
+          <t>20240402</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="C2" t="n">
-        <v>347</v>
+        <v>126</v>
       </c>
       <c r="D2" t="n">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="F2" t="n">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>20240304</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>109</v>
-      </c>
-      <c r="C3" t="n">
-        <v>265</v>
-      </c>
-      <c r="D3" t="n">
-        <v>84</v>
-      </c>
-      <c r="E3" t="n">
-        <v>133</v>
-      </c>
-      <c r="F3" t="n">
-        <v>214</v>
-      </c>
-      <c r="G3" t="n">
         <v>77</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>20240305</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>193</v>
-      </c>
-      <c r="C4" t="n">
-        <v>449</v>
-      </c>
-      <c r="D4" t="n">
-        <v>69</v>
-      </c>
-      <c r="E4" t="n">
-        <v>123</v>
-      </c>
-      <c r="F4" t="n">
-        <v>248</v>
-      </c>
-      <c r="G4" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>20240306</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>104</v>
-      </c>
-      <c r="C5" t="n">
-        <v>496</v>
-      </c>
-      <c r="D5" t="n">
-        <v>135</v>
-      </c>
-      <c r="E5" t="n">
-        <v>182</v>
-      </c>
-      <c r="F5" t="n">
-        <v>282</v>
-      </c>
-      <c r="G5" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>20240307</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>166</v>
-      </c>
-      <c r="C6" t="n">
-        <v>310</v>
-      </c>
-      <c r="D6" t="n">
-        <v>84</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>189</v>
-      </c>
-      <c r="G6" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>20240308</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>116</v>
-      </c>
-      <c r="C7" t="n">
-        <v>311</v>
-      </c>
-      <c r="D7" t="n">
-        <v>70</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>213</v>
-      </c>
-      <c r="G7" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>20240312</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>74</v>
-      </c>
-      <c r="C8" t="n">
-        <v>241</v>
-      </c>
-      <c r="D8" t="n">
-        <v>11</v>
-      </c>
-      <c r="E8" t="n">
-        <v>19</v>
-      </c>
-      <c r="F8" t="n">
-        <v>110</v>
-      </c>
-      <c r="G8" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>20240313</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>240</v>
-      </c>
-      <c r="C9" t="n">
-        <v>255</v>
-      </c>
-      <c r="D9" t="n">
-        <v>17</v>
-      </c>
-      <c r="E9" t="n">
-        <v>20</v>
-      </c>
-      <c r="F9" t="n">
-        <v>123</v>
-      </c>
-      <c r="G9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>20240315</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>110</v>
-      </c>
-      <c r="C10" t="n">
-        <v>340</v>
-      </c>
-      <c r="D10" t="n">
-        <v>21</v>
-      </c>
-      <c r="E10" t="n">
-        <v>37</v>
-      </c>
-      <c r="F10" t="n">
-        <v>342</v>
-      </c>
-      <c r="G10" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>20240318</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>153</v>
-      </c>
-      <c r="C11" t="n">
-        <v>263</v>
-      </c>
-      <c r="D11" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" t="n">
-        <v>184</v>
-      </c>
-      <c r="F11" t="n">
-        <v>211</v>
-      </c>
-      <c r="G11" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>20240319</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>78</v>
-      </c>
-      <c r="C12" t="n">
-        <v>398</v>
-      </c>
-      <c r="D12" t="n">
-        <v>17</v>
-      </c>
-      <c r="E12" t="n">
-        <v>93</v>
-      </c>
-      <c r="F12" t="n">
-        <v>179</v>
-      </c>
-      <c r="G12" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>20240320</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>69</v>
-      </c>
-      <c r="C13" t="n">
-        <v>207</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12</v>
-      </c>
-      <c r="E13" t="n">
-        <v>109</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>20240321</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>50</v>
-      </c>
-      <c r="C14" t="n">
-        <v>287</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>81</v>
-      </c>
-      <c r="F14" t="n">
-        <v>64</v>
-      </c>
-      <c r="G14" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>20240322</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>62</v>
-      </c>
-      <c r="C15" t="n">
-        <v>340</v>
-      </c>
-      <c r="D15" t="n">
-        <v>15</v>
-      </c>
-      <c r="E15" t="n">
-        <v>79</v>
-      </c>
-      <c r="F15" t="n">
-        <v>156</v>
-      </c>
-      <c r="G15" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>20240325</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>108</v>
-      </c>
-      <c r="C16" t="n">
-        <v>114</v>
-      </c>
-      <c r="D16" t="n">
-        <v>35</v>
-      </c>
-      <c r="E16" t="n">
-        <v>88</v>
-      </c>
-      <c r="F16" t="n">
-        <v>153</v>
-      </c>
-      <c r="G16" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>20240326</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>75</v>
-      </c>
-      <c r="C17" t="n">
-        <v>74</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12</v>
-      </c>
-      <c r="E17" t="n">
-        <v>73</v>
-      </c>
-      <c r="F17" t="n">
-        <v>134</v>
-      </c>
-      <c r="G17" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>20240327</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>76</v>
-      </c>
-      <c r="C18" t="n">
-        <v>163</v>
-      </c>
-      <c r="D18" t="n">
-        <v>32</v>
-      </c>
-      <c r="E18" t="n">
-        <v>74</v>
-      </c>
-      <c r="F18" t="n">
-        <v>148</v>
-      </c>
-      <c r="G18" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>20240328</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>65</v>
-      </c>
-      <c r="C19" t="n">
-        <v>83</v>
-      </c>
-      <c r="D19" t="n">
-        <v>30</v>
-      </c>
-      <c r="E19" t="n">
-        <v>92</v>
-      </c>
-      <c r="F19" t="n">
-        <v>173</v>
-      </c>
-      <c r="G19" t="n">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,31 @@
         <v>77</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>20240403</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>67</v>
+      </c>
+      <c r="C3" t="n">
+        <v>135</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E3" t="n">
+        <v>76</v>
+      </c>
+      <c r="F3" t="n">
+        <v>68</v>
+      </c>
+      <c r="G3" t="n">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,81 @@
         <v>63</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>20240404</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>75</v>
+      </c>
+      <c r="C4" t="n">
+        <v>138</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19</v>
+      </c>
+      <c r="E4" t="n">
+        <v>77</v>
+      </c>
+      <c r="F4" t="n">
+        <v>69</v>
+      </c>
+      <c r="G4" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>20240405</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88</v>
+      </c>
+      <c r="C5" t="n">
+        <v>181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29</v>
+      </c>
+      <c r="E5" t="n">
+        <v>90</v>
+      </c>
+      <c r="F5" t="n">
+        <v>152</v>
+      </c>
+      <c r="G5" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>20240409</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84</v>
+      </c>
+      <c r="C6" t="n">
+        <v>91</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F6" t="n">
+        <v>148</v>
+      </c>
+      <c r="G6" t="n">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,31 @@
         <v>71</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>20240410</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>58</v>
+      </c>
+      <c r="C7" t="n">
+        <v>152</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21</v>
+      </c>
+      <c r="E7" t="n">
+        <v>32</v>
+      </c>
+      <c r="F7" t="n">
+        <v>71</v>
+      </c>
+      <c r="G7" t="n">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,6 +620,31 @@
         <v>70</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>20240411</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>45</v>
+      </c>
+      <c r="C8" t="n">
+        <v>146</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>24</v>
+      </c>
+      <c r="F8" t="n">
+        <v>208</v>
+      </c>
+      <c r="G8" t="n">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,31 @@
         <v>75</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>20240412</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>57</v>
+      </c>
+      <c r="C9" t="n">
+        <v>223</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>122</v>
+      </c>
+      <c r="G9" t="n">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,56 @@
         <v>67</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>20240415</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>77</v>
+      </c>
+      <c r="C10" t="n">
+        <v>217</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F10" t="n">
+        <v>138</v>
+      </c>
+      <c r="G10" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>20240416</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>80</v>
+      </c>
+      <c r="C11" t="n">
+        <v>88</v>
+      </c>
+      <c r="D11" t="n">
+        <v>19</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23</v>
+      </c>
+      <c r="F11" t="n">
+        <v>90</v>
+      </c>
+      <c r="G11" t="n">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,6 +720,31 @@
         <v>61</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>20240417</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>81</v>
+      </c>
+      <c r="C12" t="n">
+        <v>83</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19</v>
+      </c>
+      <c r="E12" t="n">
+        <v>24</v>
+      </c>
+      <c r="F12" t="n">
+        <v>92</v>
+      </c>
+      <c r="G12" t="n">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,31 @@
         <v>59</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>20240418</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>94</v>
+      </c>
+      <c r="C13" t="n">
+        <v>176</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24</v>
+      </c>
+      <c r="F13" t="n">
+        <v>180</v>
+      </c>
+      <c r="G13" t="n">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,6 +770,31 @@
         <v>72</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>20240422</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96</v>
+      </c>
+      <c r="C14" t="n">
+        <v>170</v>
+      </c>
+      <c r="D14" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>61</v>
+      </c>
+      <c r="F14" t="n">
+        <v>121</v>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +795,31 @@
         <v>74</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>20240423</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96</v>
+      </c>
+      <c r="C15" t="n">
+        <v>176</v>
+      </c>
+      <c r="D15" t="n">
+        <v>34</v>
+      </c>
+      <c r="E15" t="n">
+        <v>66</v>
+      </c>
+      <c r="F15" t="n">
+        <v>70</v>
+      </c>
+      <c r="G15" t="n">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,6 +820,31 @@
         <v>63</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>20240424</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95</v>
+      </c>
+      <c r="C16" t="n">
+        <v>121</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>24</v>
+      </c>
+      <c r="F16" t="n">
+        <v>66</v>
+      </c>
+      <c r="G16" t="n">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,6 +845,31 @@
         <v>65</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>20240429</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>66</v>
+      </c>
+      <c r="C17" t="n">
+        <v>160</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
+      <c r="E17" t="n">
+        <v>32</v>
+      </c>
+      <c r="F17" t="n">
+        <v>181</v>
+      </c>
+      <c r="G17" t="n">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,6 +870,31 @@
         <v>65</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>20240430</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>105</v>
+      </c>
+      <c r="C18" t="n">
+        <v>181</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>56</v>
+      </c>
+      <c r="F18" t="n">
+        <v>209</v>
+      </c>
+      <c r="G18" t="n">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -895,6 +895,31 @@
         <v>62</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>20240503</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>114</v>
+      </c>
+      <c r="C19" t="n">
+        <v>282</v>
+      </c>
+      <c r="D19" t="n">
+        <v>35</v>
+      </c>
+      <c r="E19" t="n">
+        <v>37</v>
+      </c>
+      <c r="F19" t="n">
+        <v>299</v>
+      </c>
+      <c r="G19" t="n">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -920,6 +920,31 @@
         <v>53</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>20240506</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>99</v>
+      </c>
+      <c r="C20" t="n">
+        <v>101</v>
+      </c>
+      <c r="D20" t="n">
+        <v>21</v>
+      </c>
+      <c r="E20" t="n">
+        <v>55</v>
+      </c>
+      <c r="F20" t="n">
+        <v>254</v>
+      </c>
+      <c r="G20" t="n">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -945,6 +945,31 @@
         <v>46</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>20240507</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>59</v>
+      </c>
+      <c r="C21" t="n">
+        <v>57</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15</v>
+      </c>
+      <c r="F21" t="n">
+        <v>51</v>
+      </c>
+      <c r="G21" t="n">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,6 +970,31 @@
         <v>43</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>20240508</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>68</v>
+      </c>
+      <c r="C22" t="n">
+        <v>88</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>17</v>
+      </c>
+      <c r="F22" t="n">
+        <v>60</v>
+      </c>
+      <c r="G22" t="n">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,6 +995,31 @@
         <v>52</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>20240509</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>85</v>
+      </c>
+      <c r="C23" t="n">
+        <v>115</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>16</v>
+      </c>
+      <c r="F23" t="n">
+        <v>75</v>
+      </c>
+      <c r="G23" t="n">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,550 +473,125 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20240402</t>
+          <t>20240503</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C2" t="n">
-        <v>126</v>
+        <v>282</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="F2" t="n">
-        <v>83</v>
+        <v>299</v>
       </c>
       <c r="G2" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>20240403</t>
+          <t>20240506</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C3" t="n">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F3" t="n">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="G3" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>20240404</t>
+          <t>20240507</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C4" t="n">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="G4" t="n">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>20240405</t>
+          <t>20240508</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>68</v>
+      </c>
+      <c r="C5" t="n">
         <v>88</v>
       </c>
-      <c r="C5" t="n">
-        <v>181</v>
-      </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>20240409</t>
+          <t>20240509</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" t="n">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="G6" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>20240410</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>58</v>
-      </c>
-      <c r="C7" t="n">
-        <v>152</v>
-      </c>
-      <c r="D7" t="n">
-        <v>21</v>
-      </c>
-      <c r="E7" t="n">
-        <v>32</v>
-      </c>
-      <c r="F7" t="n">
-        <v>71</v>
-      </c>
-      <c r="G7" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>20240411</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>45</v>
-      </c>
-      <c r="C8" t="n">
-        <v>146</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>24</v>
-      </c>
-      <c r="F8" t="n">
-        <v>208</v>
-      </c>
-      <c r="G8" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>20240412</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>57</v>
-      </c>
-      <c r="C9" t="n">
-        <v>223</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="n">
-        <v>26</v>
-      </c>
-      <c r="F9" t="n">
-        <v>122</v>
-      </c>
-      <c r="G9" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>20240415</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>77</v>
-      </c>
-      <c r="C10" t="n">
-        <v>217</v>
-      </c>
-      <c r="D10" t="n">
-        <v>23</v>
-      </c>
-      <c r="E10" t="n">
-        <v>31</v>
-      </c>
-      <c r="F10" t="n">
-        <v>138</v>
-      </c>
-      <c r="G10" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>20240416</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>80</v>
-      </c>
-      <c r="C11" t="n">
-        <v>88</v>
-      </c>
-      <c r="D11" t="n">
-        <v>19</v>
-      </c>
-      <c r="E11" t="n">
-        <v>23</v>
-      </c>
-      <c r="F11" t="n">
-        <v>90</v>
-      </c>
-      <c r="G11" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>20240417</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>81</v>
-      </c>
-      <c r="C12" t="n">
-        <v>83</v>
-      </c>
-      <c r="D12" t="n">
-        <v>19</v>
-      </c>
-      <c r="E12" t="n">
-        <v>24</v>
-      </c>
-      <c r="F12" t="n">
-        <v>92</v>
-      </c>
-      <c r="G12" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>20240418</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>94</v>
-      </c>
-      <c r="C13" t="n">
-        <v>176</v>
-      </c>
-      <c r="D13" t="n">
-        <v>20</v>
-      </c>
-      <c r="E13" t="n">
-        <v>24</v>
-      </c>
-      <c r="F13" t="n">
-        <v>180</v>
-      </c>
-      <c r="G13" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>20240422</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>96</v>
-      </c>
-      <c r="C14" t="n">
-        <v>170</v>
-      </c>
-      <c r="D14" t="n">
-        <v>15</v>
-      </c>
-      <c r="E14" t="n">
-        <v>61</v>
-      </c>
-      <c r="F14" t="n">
-        <v>121</v>
-      </c>
-      <c r="G14" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>20240423</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>96</v>
-      </c>
-      <c r="C15" t="n">
-        <v>176</v>
-      </c>
-      <c r="D15" t="n">
-        <v>34</v>
-      </c>
-      <c r="E15" t="n">
-        <v>66</v>
-      </c>
-      <c r="F15" t="n">
-        <v>70</v>
-      </c>
-      <c r="G15" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>20240424</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>95</v>
-      </c>
-      <c r="C16" t="n">
-        <v>121</v>
-      </c>
-      <c r="D16" t="n">
-        <v>15</v>
-      </c>
-      <c r="E16" t="n">
-        <v>24</v>
-      </c>
-      <c r="F16" t="n">
-        <v>66</v>
-      </c>
-      <c r="G16" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>20240429</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>66</v>
-      </c>
-      <c r="C17" t="n">
-        <v>160</v>
-      </c>
-      <c r="D17" t="n">
-        <v>20</v>
-      </c>
-      <c r="E17" t="n">
-        <v>32</v>
-      </c>
-      <c r="F17" t="n">
-        <v>181</v>
-      </c>
-      <c r="G17" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>20240430</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>105</v>
-      </c>
-      <c r="C18" t="n">
-        <v>181</v>
-      </c>
-      <c r="D18" t="n">
-        <v>12</v>
-      </c>
-      <c r="E18" t="n">
-        <v>56</v>
-      </c>
-      <c r="F18" t="n">
-        <v>209</v>
-      </c>
-      <c r="G18" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>20240503</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>114</v>
-      </c>
-      <c r="C19" t="n">
-        <v>282</v>
-      </c>
-      <c r="D19" t="n">
-        <v>35</v>
-      </c>
-      <c r="E19" t="n">
-        <v>37</v>
-      </c>
-      <c r="F19" t="n">
-        <v>299</v>
-      </c>
-      <c r="G19" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>20240506</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>99</v>
-      </c>
-      <c r="C20" t="n">
-        <v>101</v>
-      </c>
-      <c r="D20" t="n">
-        <v>21</v>
-      </c>
-      <c r="E20" t="n">
-        <v>55</v>
-      </c>
-      <c r="F20" t="n">
-        <v>254</v>
-      </c>
-      <c r="G20" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>20240507</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>59</v>
-      </c>
-      <c r="C21" t="n">
-        <v>57</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>15</v>
-      </c>
-      <c r="F21" t="n">
-        <v>51</v>
-      </c>
-      <c r="G21" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>20240508</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>68</v>
-      </c>
-      <c r="C22" t="n">
-        <v>88</v>
-      </c>
-      <c r="D22" t="n">
-        <v>7</v>
-      </c>
-      <c r="E22" t="n">
-        <v>17</v>
-      </c>
-      <c r="F22" t="n">
-        <v>60</v>
-      </c>
-      <c r="G22" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>20240509</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>85</v>
-      </c>
-      <c r="C23" t="n">
-        <v>115</v>
-      </c>
-      <c r="D23" t="n">
-        <v>9</v>
-      </c>
-      <c r="E23" t="n">
-        <v>16</v>
-      </c>
-      <c r="F23" t="n">
-        <v>75</v>
-      </c>
-      <c r="G23" t="n">
         <v>42</v>
       </c>
     </row>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,56 @@
         <v>42</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>20240510</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>62</v>
+      </c>
+      <c r="C7" t="n">
+        <v>77</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>20240513</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>126</v>
+      </c>
+      <c r="C8" t="n">
+        <v>218</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19</v>
+      </c>
+      <c r="E8" t="n">
+        <v>89</v>
+      </c>
+      <c r="F8" t="n">
+        <v>130</v>
+      </c>
+      <c r="G8" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,31 @@
         <v>50</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>20240515</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>148</v>
+      </c>
+      <c r="C9" t="n">
+        <v>81</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16</v>
+      </c>
+      <c r="E9" t="n">
+        <v>34</v>
+      </c>
+      <c r="F9" t="n">
+        <v>177</v>
+      </c>
+      <c r="G9" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,31 @@
         <v>48</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>20240516</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>104</v>
+      </c>
+      <c r="C10" t="n">
+        <v>223</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" t="n">
+        <v>36</v>
+      </c>
+      <c r="F10" t="n">
+        <v>96</v>
+      </c>
+      <c r="G10" t="n">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -695,6 +695,31 @@
         <v>51</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>20240517</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>81</v>
+      </c>
+      <c r="C11" t="n">
+        <v>136</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>46</v>
+      </c>
+      <c r="F11" t="n">
+        <v>135</v>
+      </c>
+      <c r="G11" t="n">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,6 +720,31 @@
         <v>53</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>20240521</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>64</v>
+      </c>
+      <c r="C12" t="n">
+        <v>77</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17</v>
+      </c>
+      <c r="F12" t="n">
+        <v>154</v>
+      </c>
+      <c r="G12" t="n">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,31 @@
         <v>43</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>20240522</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>51</v>
+      </c>
+      <c r="C13" t="n">
+        <v>73</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>18</v>
+      </c>
+      <c r="F13" t="n">
+        <v>139</v>
+      </c>
+      <c r="G13" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,6 +770,31 @@
         <v>48</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>20240524</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>80</v>
+      </c>
+      <c r="C14" t="n">
+        <v>242</v>
+      </c>
+      <c r="D14" t="n">
+        <v>22</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>127</v>
+      </c>
+      <c r="G14" t="n">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +795,56 @@
         <v>60</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>20240528</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>103</v>
+      </c>
+      <c r="C15" t="n">
+        <v>298</v>
+      </c>
+      <c r="D15" t="n">
+        <v>28</v>
+      </c>
+      <c r="E15" t="n">
+        <v>110</v>
+      </c>
+      <c r="F15" t="n">
+        <v>98</v>
+      </c>
+      <c r="G15" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>20240531</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>103</v>
+      </c>
+      <c r="C16" t="n">
+        <v>274</v>
+      </c>
+      <c r="D16" t="n">
+        <v>22</v>
+      </c>
+      <c r="E16" t="n">
+        <v>34</v>
+      </c>
+      <c r="F16" t="n">
+        <v>67</v>
+      </c>
+      <c r="G16" t="n">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,376 +473,26 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20240503</t>
+          <t>20240611</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F2" t="n">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="G2" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>20240506</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>99</v>
-      </c>
-      <c r="C3" t="n">
-        <v>101</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21</v>
-      </c>
-      <c r="E3" t="n">
-        <v>55</v>
-      </c>
-      <c r="F3" t="n">
-        <v>254</v>
-      </c>
-      <c r="G3" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>20240507</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>59</v>
-      </c>
-      <c r="C4" t="n">
-        <v>57</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F4" t="n">
-        <v>51</v>
-      </c>
-      <c r="G4" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>20240508</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>68</v>
-      </c>
-      <c r="C5" t="n">
-        <v>88</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17</v>
-      </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>20240509</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>85</v>
-      </c>
-      <c r="C6" t="n">
-        <v>115</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9</v>
-      </c>
-      <c r="E6" t="n">
-        <v>16</v>
-      </c>
-      <c r="F6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G6" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>20240510</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>62</v>
-      </c>
-      <c r="C7" t="n">
-        <v>77</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>16</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>20240513</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>126</v>
-      </c>
-      <c r="C8" t="n">
-        <v>218</v>
-      </c>
-      <c r="D8" t="n">
-        <v>19</v>
-      </c>
-      <c r="E8" t="n">
-        <v>89</v>
-      </c>
-      <c r="F8" t="n">
-        <v>130</v>
-      </c>
-      <c r="G8" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>20240515</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>148</v>
-      </c>
-      <c r="C9" t="n">
-        <v>81</v>
-      </c>
-      <c r="D9" t="n">
-        <v>16</v>
-      </c>
-      <c r="E9" t="n">
-        <v>34</v>
-      </c>
-      <c r="F9" t="n">
-        <v>177</v>
-      </c>
-      <c r="G9" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>20240516</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>104</v>
-      </c>
-      <c r="C10" t="n">
-        <v>223</v>
-      </c>
-      <c r="D10" t="n">
-        <v>15</v>
-      </c>
-      <c r="E10" t="n">
-        <v>36</v>
-      </c>
-      <c r="F10" t="n">
-        <v>96</v>
-      </c>
-      <c r="G10" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>20240517</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>81</v>
-      </c>
-      <c r="C11" t="n">
-        <v>136</v>
-      </c>
-      <c r="D11" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" t="n">
-        <v>46</v>
-      </c>
-      <c r="F11" t="n">
-        <v>135</v>
-      </c>
-      <c r="G11" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>20240521</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>64</v>
-      </c>
-      <c r="C12" t="n">
-        <v>77</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6</v>
-      </c>
-      <c r="E12" t="n">
-        <v>17</v>
-      </c>
-      <c r="F12" t="n">
-        <v>154</v>
-      </c>
-      <c r="G12" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>20240522</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>51</v>
-      </c>
-      <c r="C13" t="n">
-        <v>73</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8</v>
-      </c>
-      <c r="E13" t="n">
-        <v>18</v>
-      </c>
-      <c r="F13" t="n">
-        <v>139</v>
-      </c>
-      <c r="G13" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>20240524</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>80</v>
-      </c>
-      <c r="C14" t="n">
-        <v>242</v>
-      </c>
-      <c r="D14" t="n">
-        <v>22</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12</v>
-      </c>
-      <c r="F14" t="n">
-        <v>127</v>
-      </c>
-      <c r="G14" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>20240528</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>103</v>
-      </c>
-      <c r="C15" t="n">
-        <v>298</v>
-      </c>
-      <c r="D15" t="n">
-        <v>28</v>
-      </c>
-      <c r="E15" t="n">
-        <v>110</v>
-      </c>
-      <c r="F15" t="n">
-        <v>98</v>
-      </c>
-      <c r="G15" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>20240531</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>103</v>
-      </c>
-      <c r="C16" t="n">
-        <v>274</v>
-      </c>
-      <c r="D16" t="n">
-        <v>22</v>
-      </c>
-      <c r="E16" t="n">
-        <v>34</v>
-      </c>
-      <c r="F16" t="n">
-        <v>67</v>
-      </c>
-      <c r="G16" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,31 @@
         <v>58</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>20240612</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>54</v>
+      </c>
+      <c r="C3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>86</v>
+      </c>
+      <c r="G3" t="n">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,31 @@
         <v>49</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>20240613</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>51</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>82</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,31 @@
         <v>50</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>20240617</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>102</v>
+      </c>
+      <c r="C5" t="n">
+        <v>101</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39</v>
+      </c>
+      <c r="E5" t="n">
+        <v>86</v>
+      </c>
+      <c r="F5" t="n">
+        <v>63</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,6 +570,31 @@
         <v>49</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>20240618</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>98</v>
+      </c>
+      <c r="D6" t="n">
+        <v>39</v>
+      </c>
+      <c r="E6" t="n">
+        <v>71</v>
+      </c>
+      <c r="F6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G6" t="n">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,31 @@
         <v>53</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>20240619</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>56</v>
+      </c>
+      <c r="C7" t="n">
+        <v>90</v>
+      </c>
+      <c r="D7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E7" t="n">
+        <v>69</v>
+      </c>
+      <c r="F7" t="n">
+        <v>82</v>
+      </c>
+      <c r="G7" t="n">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,6 +620,31 @@
         <v>34</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>20240620</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C8" t="n">
+        <v>89</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E8" t="n">
+        <v>57</v>
+      </c>
+      <c r="F8" t="n">
+        <v>83</v>
+      </c>
+      <c r="G8" t="n">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,31 @@
         <v>31</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>20240621</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>44</v>
+      </c>
+      <c r="C9" t="n">
+        <v>89</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>55</v>
+      </c>
+      <c r="F9" t="n">
+        <v>84</v>
+      </c>
+      <c r="G9" t="n">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,31 @@
         <v>39</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>20240624</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>112</v>
+      </c>
+      <c r="C10" t="n">
+        <v>155</v>
+      </c>
+      <c r="D10" t="n">
+        <v>129</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94</v>
+      </c>
+      <c r="F10" t="n">
+        <v>116</v>
+      </c>
+      <c r="G10" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -695,6 +695,31 @@
         <v>48</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>20240625</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>40</v>
+      </c>
+      <c r="C11" t="n">
+        <v>70</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" t="n">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,6 +720,31 @@
         <v>38</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>20240626</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>46</v>
+      </c>
+      <c r="C12" t="n">
+        <v>109</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>21</v>
+      </c>
+      <c r="F12" t="n">
+        <v>78</v>
+      </c>
+      <c r="G12" t="n">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,31 @@
         <v>52</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>20240627</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>44</v>
+      </c>
+      <c r="C13" t="n">
+        <v>98</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30</v>
+      </c>
+      <c r="F13" t="n">
+        <v>60</v>
+      </c>
+      <c r="G13" t="n">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,6 +770,31 @@
         <v>53</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>20240704</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>152</v>
+      </c>
+      <c r="C14" t="n">
+        <v>407</v>
+      </c>
+      <c r="D14" t="n">
+        <v>184</v>
+      </c>
+      <c r="E14" t="n">
+        <v>56</v>
+      </c>
+      <c r="F14" t="n">
+        <v>93</v>
+      </c>
+      <c r="G14" t="n">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +795,31 @@
         <v>73</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>20240705</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>93</v>
+      </c>
+      <c r="C15" t="n">
+        <v>365</v>
+      </c>
+      <c r="D15" t="n">
+        <v>86</v>
+      </c>
+      <c r="E15" t="n">
+        <v>97</v>
+      </c>
+      <c r="F15" t="n">
+        <v>118</v>
+      </c>
+      <c r="G15" t="n">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,351 +473,76 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20240611</t>
+          <t>20240704</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="C2" t="n">
-        <v>149</v>
+        <v>407</v>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F2" t="n">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="G2" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>20240612</t>
+          <t>20240705</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>365</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F3" t="n">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="G3" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>20240613</t>
+          <t>20240708</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C4" t="n">
-        <v>87</v>
+        <v>371</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="F4" t="n">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>20240617</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>102</v>
-      </c>
-      <c r="C5" t="n">
-        <v>101</v>
-      </c>
-      <c r="D5" t="n">
-        <v>39</v>
-      </c>
-      <c r="E5" t="n">
-        <v>86</v>
-      </c>
-      <c r="F5" t="n">
-        <v>63</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>20240618</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
         <v>74</v>
-      </c>
-      <c r="C6" t="n">
-        <v>98</v>
-      </c>
-      <c r="D6" t="n">
-        <v>39</v>
-      </c>
-      <c r="E6" t="n">
-        <v>71</v>
-      </c>
-      <c r="F6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G6" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>20240619</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>56</v>
-      </c>
-      <c r="C7" t="n">
-        <v>90</v>
-      </c>
-      <c r="D7" t="n">
-        <v>31</v>
-      </c>
-      <c r="E7" t="n">
-        <v>69</v>
-      </c>
-      <c r="F7" t="n">
-        <v>82</v>
-      </c>
-      <c r="G7" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>20240620</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C8" t="n">
-        <v>89</v>
-      </c>
-      <c r="D8" t="n">
-        <v>13</v>
-      </c>
-      <c r="E8" t="n">
-        <v>57</v>
-      </c>
-      <c r="F8" t="n">
-        <v>83</v>
-      </c>
-      <c r="G8" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>20240621</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>44</v>
-      </c>
-      <c r="C9" t="n">
-        <v>89</v>
-      </c>
-      <c r="D9" t="n">
-        <v>15</v>
-      </c>
-      <c r="E9" t="n">
-        <v>55</v>
-      </c>
-      <c r="F9" t="n">
-        <v>84</v>
-      </c>
-      <c r="G9" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>20240624</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>112</v>
-      </c>
-      <c r="C10" t="n">
-        <v>155</v>
-      </c>
-      <c r="D10" t="n">
-        <v>129</v>
-      </c>
-      <c r="E10" t="n">
-        <v>94</v>
-      </c>
-      <c r="F10" t="n">
-        <v>116</v>
-      </c>
-      <c r="G10" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>20240625</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>40</v>
-      </c>
-      <c r="C11" t="n">
-        <v>70</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16</v>
-      </c>
-      <c r="E11" t="n">
-        <v>21</v>
-      </c>
-      <c r="F11" t="n">
-        <v>50</v>
-      </c>
-      <c r="G11" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>20240626</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>46</v>
-      </c>
-      <c r="C12" t="n">
-        <v>109</v>
-      </c>
-      <c r="D12" t="n">
-        <v>15</v>
-      </c>
-      <c r="E12" t="n">
-        <v>21</v>
-      </c>
-      <c r="F12" t="n">
-        <v>78</v>
-      </c>
-      <c r="G12" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>20240627</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>44</v>
-      </c>
-      <c r="C13" t="n">
-        <v>98</v>
-      </c>
-      <c r="D13" t="n">
-        <v>15</v>
-      </c>
-      <c r="E13" t="n">
-        <v>30</v>
-      </c>
-      <c r="F13" t="n">
-        <v>60</v>
-      </c>
-      <c r="G13" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>20240704</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>152</v>
-      </c>
-      <c r="C14" t="n">
-        <v>407</v>
-      </c>
-      <c r="D14" t="n">
-        <v>184</v>
-      </c>
-      <c r="E14" t="n">
-        <v>56</v>
-      </c>
-      <c r="F14" t="n">
-        <v>93</v>
-      </c>
-      <c r="G14" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>20240705</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>93</v>
-      </c>
-      <c r="C15" t="n">
-        <v>365</v>
-      </c>
-      <c r="D15" t="n">
-        <v>86</v>
-      </c>
-      <c r="E15" t="n">
-        <v>97</v>
-      </c>
-      <c r="F15" t="n">
-        <v>118</v>
-      </c>
-      <c r="G15" t="n">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,56 @@
         <v>74</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>20240709</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>97</v>
+      </c>
+      <c r="C5" t="n">
+        <v>281</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="n">
+        <v>90</v>
+      </c>
+      <c r="F5" t="n">
+        <v>78</v>
+      </c>
+      <c r="G5" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>20240710</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>287</v>
+      </c>
+      <c r="C6" t="n">
+        <v>253</v>
+      </c>
+      <c r="D6" t="n">
+        <v>84</v>
+      </c>
+      <c r="E6" t="n">
+        <v>47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>83</v>
+      </c>
+      <c r="G6" t="n">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,31 @@
         <v>47</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>20240711</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>94</v>
+      </c>
+      <c r="C7" t="n">
+        <v>211</v>
+      </c>
+      <c r="D7" t="n">
+        <v>83</v>
+      </c>
+      <c r="E7" t="n">
+        <v>47</v>
+      </c>
+      <c r="F7" t="n">
+        <v>55</v>
+      </c>
+      <c r="G7" t="n">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,6 +620,56 @@
         <v>40</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>20240712</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>251</v>
+      </c>
+      <c r="C8" t="n">
+        <v>260</v>
+      </c>
+      <c r="D8" t="n">
+        <v>88</v>
+      </c>
+      <c r="E8" t="n">
+        <v>48</v>
+      </c>
+      <c r="F8" t="n">
+        <v>79</v>
+      </c>
+      <c r="G8" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>20240715</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>198</v>
+      </c>
+      <c r="C9" t="n">
+        <v>222</v>
+      </c>
+      <c r="D9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" t="n">
+        <v>48</v>
+      </c>
+      <c r="F9" t="n">
+        <v>101</v>
+      </c>
+      <c r="G9" t="n">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,31 @@
         <v>61</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>20240716</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>252</v>
+      </c>
+      <c r="C10" t="n">
+        <v>241</v>
+      </c>
+      <c r="D10" t="n">
+        <v>99</v>
+      </c>
+      <c r="E10" t="n">
+        <v>58</v>
+      </c>
+      <c r="F10" t="n">
+        <v>139</v>
+      </c>
+      <c r="G10" t="n">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -695,6 +695,31 @@
         <v>64</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>20240717</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>261</v>
+      </c>
+      <c r="C11" t="n">
+        <v>328</v>
+      </c>
+      <c r="D11" t="n">
+        <v>90</v>
+      </c>
+      <c r="E11" t="n">
+        <v>60</v>
+      </c>
+      <c r="F11" t="n">
+        <v>228</v>
+      </c>
+      <c r="G11" t="n">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,6 +720,31 @@
         <v>59</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>20240718</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>197</v>
+      </c>
+      <c r="C12" t="n">
+        <v>400</v>
+      </c>
+      <c r="D12" t="n">
+        <v>88</v>
+      </c>
+      <c r="E12" t="n">
+        <v>59</v>
+      </c>
+      <c r="F12" t="n">
+        <v>147</v>
+      </c>
+      <c r="G12" t="n">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,31 @@
         <v>58</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>20240719</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>344</v>
+      </c>
+      <c r="C13" t="n">
+        <v>288</v>
+      </c>
+      <c r="D13" t="n">
+        <v>86</v>
+      </c>
+      <c r="E13" t="n">
+        <v>58</v>
+      </c>
+      <c r="F13" t="n">
+        <v>139</v>
+      </c>
+      <c r="G13" t="n">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,6 +770,31 @@
         <v>36</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>20240722</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>247</v>
+      </c>
+      <c r="C14" t="n">
+        <v>278</v>
+      </c>
+      <c r="D14" t="n">
+        <v>101</v>
+      </c>
+      <c r="E14" t="n">
+        <v>65</v>
+      </c>
+      <c r="F14" t="n">
+        <v>121</v>
+      </c>
+      <c r="G14" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +795,31 @@
         <v>48</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>20240723</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>187</v>
+      </c>
+      <c r="C15" t="n">
+        <v>241</v>
+      </c>
+      <c r="D15" t="n">
+        <v>82</v>
+      </c>
+      <c r="E15" t="n">
+        <v>54</v>
+      </c>
+      <c r="F15" t="n">
+        <v>125</v>
+      </c>
+      <c r="G15" t="n">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,6 +820,31 @@
         <v>49</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>20240730</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>64</v>
+      </c>
+      <c r="C16" t="n">
+        <v>104</v>
+      </c>
+      <c r="D16" t="n">
+        <v>99</v>
+      </c>
+      <c r="E16" t="n">
+        <v>342</v>
+      </c>
+      <c r="F16" t="n">
+        <v>91</v>
+      </c>
+      <c r="G16" t="n">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,6 +845,31 @@
         <v>88</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>20240731</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>71</v>
+      </c>
+      <c r="C17" t="n">
+        <v>74</v>
+      </c>
+      <c r="D17" t="n">
+        <v>178</v>
+      </c>
+      <c r="E17" t="n">
+        <v>387</v>
+      </c>
+      <c r="F17" t="n">
+        <v>73</v>
+      </c>
+      <c r="G17" t="n">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,400 +473,25 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20240704</t>
+          <t>20240806</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C2" t="n">
-        <v>407</v>
+        <v>182</v>
       </c>
       <c r="D2" t="n">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="E2" t="n">
-        <v>56</v>
+        <v>516</v>
       </c>
       <c r="F2" t="n">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="G2" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>20240705</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>93</v>
-      </c>
-      <c r="C3" t="n">
-        <v>365</v>
-      </c>
-      <c r="D3" t="n">
-        <v>86</v>
-      </c>
-      <c r="E3" t="n">
-        <v>97</v>
-      </c>
-      <c r="F3" t="n">
-        <v>118</v>
-      </c>
-      <c r="G3" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>20240708</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>139</v>
-      </c>
-      <c r="C4" t="n">
-        <v>371</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93</v>
-      </c>
-      <c r="E4" t="n">
-        <v>113</v>
-      </c>
-      <c r="F4" t="n">
-        <v>102</v>
-      </c>
-      <c r="G4" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>20240709</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>97</v>
-      </c>
-      <c r="C5" t="n">
-        <v>281</v>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="n">
-        <v>90</v>
-      </c>
-      <c r="F5" t="n">
-        <v>78</v>
-      </c>
-      <c r="G5" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>20240710</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>287</v>
-      </c>
-      <c r="C6" t="n">
-        <v>253</v>
-      </c>
-      <c r="D6" t="n">
-        <v>84</v>
-      </c>
-      <c r="E6" t="n">
-        <v>47</v>
-      </c>
-      <c r="F6" t="n">
-        <v>83</v>
-      </c>
-      <c r="G6" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>20240711</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>94</v>
-      </c>
-      <c r="C7" t="n">
-        <v>211</v>
-      </c>
-      <c r="D7" t="n">
-        <v>83</v>
-      </c>
-      <c r="E7" t="n">
-        <v>47</v>
-      </c>
-      <c r="F7" t="n">
-        <v>55</v>
-      </c>
-      <c r="G7" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>20240712</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>251</v>
-      </c>
-      <c r="C8" t="n">
-        <v>260</v>
-      </c>
-      <c r="D8" t="n">
-        <v>88</v>
-      </c>
-      <c r="E8" t="n">
-        <v>48</v>
-      </c>
-      <c r="F8" t="n">
-        <v>79</v>
-      </c>
-      <c r="G8" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>20240715</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>198</v>
-      </c>
-      <c r="C9" t="n">
-        <v>222</v>
-      </c>
-      <c r="D9" t="n">
-        <v>96</v>
-      </c>
-      <c r="E9" t="n">
-        <v>48</v>
-      </c>
-      <c r="F9" t="n">
-        <v>101</v>
-      </c>
-      <c r="G9" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>20240716</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>252</v>
-      </c>
-      <c r="C10" t="n">
-        <v>241</v>
-      </c>
-      <c r="D10" t="n">
-        <v>99</v>
-      </c>
-      <c r="E10" t="n">
-        <v>58</v>
-      </c>
-      <c r="F10" t="n">
-        <v>139</v>
-      </c>
-      <c r="G10" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>20240717</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>261</v>
-      </c>
-      <c r="C11" t="n">
-        <v>328</v>
-      </c>
-      <c r="D11" t="n">
-        <v>90</v>
-      </c>
-      <c r="E11" t="n">
-        <v>60</v>
-      </c>
-      <c r="F11" t="n">
-        <v>228</v>
-      </c>
-      <c r="G11" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>20240718</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>197</v>
-      </c>
-      <c r="C12" t="n">
-        <v>400</v>
-      </c>
-      <c r="D12" t="n">
-        <v>88</v>
-      </c>
-      <c r="E12" t="n">
-        <v>59</v>
-      </c>
-      <c r="F12" t="n">
-        <v>147</v>
-      </c>
-      <c r="G12" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>20240719</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>344</v>
-      </c>
-      <c r="C13" t="n">
-        <v>288</v>
-      </c>
-      <c r="D13" t="n">
-        <v>86</v>
-      </c>
-      <c r="E13" t="n">
-        <v>58</v>
-      </c>
-      <c r="F13" t="n">
-        <v>139</v>
-      </c>
-      <c r="G13" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>20240722</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>247</v>
-      </c>
-      <c r="C14" t="n">
-        <v>278</v>
-      </c>
-      <c r="D14" t="n">
-        <v>101</v>
-      </c>
-      <c r="E14" t="n">
-        <v>65</v>
-      </c>
-      <c r="F14" t="n">
-        <v>121</v>
-      </c>
-      <c r="G14" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>20240723</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>187</v>
-      </c>
-      <c r="C15" t="n">
-        <v>241</v>
-      </c>
-      <c r="D15" t="n">
-        <v>82</v>
-      </c>
-      <c r="E15" t="n">
-        <v>54</v>
-      </c>
-      <c r="F15" t="n">
-        <v>125</v>
-      </c>
-      <c r="G15" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>20240730</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>64</v>
-      </c>
-      <c r="C16" t="n">
-        <v>104</v>
-      </c>
-      <c r="D16" t="n">
-        <v>99</v>
-      </c>
-      <c r="E16" t="n">
-        <v>342</v>
-      </c>
-      <c r="F16" t="n">
-        <v>91</v>
-      </c>
-      <c r="G16" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>20240731</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>71</v>
-      </c>
-      <c r="C17" t="n">
-        <v>74</v>
-      </c>
-      <c r="D17" t="n">
-        <v>178</v>
-      </c>
-      <c r="E17" t="n">
-        <v>387</v>
-      </c>
-      <c r="F17" t="n">
-        <v>73</v>
-      </c>
-      <c r="G17" t="n">
         <v>85</v>
       </c>
     </row>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,31 @@
         <v>85</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>20240807</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>102</v>
+      </c>
+      <c r="C3" t="n">
+        <v>138</v>
+      </c>
+      <c r="D3" t="n">
+        <v>138</v>
+      </c>
+      <c r="E3" t="n">
+        <v>530</v>
+      </c>
+      <c r="F3" t="n">
+        <v>165</v>
+      </c>
+      <c r="G3" t="n">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,56 @@
         <v>60</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>20240808</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>129</v>
+      </c>
+      <c r="C4" t="n">
+        <v>108</v>
+      </c>
+      <c r="D4" t="n">
+        <v>140</v>
+      </c>
+      <c r="E4" t="n">
+        <v>473</v>
+      </c>
+      <c r="F4" t="n">
+        <v>148</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>20240816</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>116</v>
+      </c>
+      <c r="C5" t="n">
+        <v>142</v>
+      </c>
+      <c r="D5" t="n">
+        <v>183</v>
+      </c>
+      <c r="E5" t="n">
+        <v>503</v>
+      </c>
+      <c r="F5" t="n">
+        <v>333</v>
+      </c>
+      <c r="G5" t="n">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,6 +570,31 @@
         <v>63</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>20240819</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>163</v>
+      </c>
+      <c r="C6" t="n">
+        <v>255</v>
+      </c>
+      <c r="D6" t="n">
+        <v>178</v>
+      </c>
+      <c r="E6" t="n">
+        <v>487</v>
+      </c>
+      <c r="F6" t="n">
+        <v>299</v>
+      </c>
+      <c r="G6" t="n">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,31 @@
         <v>74</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>20240821</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>118</v>
+      </c>
+      <c r="C7" t="n">
+        <v>216</v>
+      </c>
+      <c r="D7" t="n">
+        <v>193</v>
+      </c>
+      <c r="E7" t="n">
+        <v>521</v>
+      </c>
+      <c r="F7" t="n">
+        <v>240</v>
+      </c>
+      <c r="G7" t="n">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,6 +620,31 @@
         <v>78</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>20240823</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>167</v>
+      </c>
+      <c r="C8" t="n">
+        <v>262</v>
+      </c>
+      <c r="D8" t="n">
+        <v>207</v>
+      </c>
+      <c r="E8" t="n">
+        <v>595</v>
+      </c>
+      <c r="F8" t="n">
+        <v>359</v>
+      </c>
+      <c r="G8" t="n">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,56 @@
         <v>90</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>20240825</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>109</v>
+      </c>
+      <c r="C9" t="n">
+        <v>202</v>
+      </c>
+      <c r="D9" t="n">
+        <v>271</v>
+      </c>
+      <c r="E9" t="n">
+        <v>352</v>
+      </c>
+      <c r="F9" t="n">
+        <v>490</v>
+      </c>
+      <c r="G9" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>20240826</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>120</v>
+      </c>
+      <c r="C10" t="n">
+        <v>148</v>
+      </c>
+      <c r="D10" t="n">
+        <v>103</v>
+      </c>
+      <c r="E10" t="n">
+        <v>368</v>
+      </c>
+      <c r="F10" t="n">
+        <v>286</v>
+      </c>
+      <c r="G10" t="n">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -695,6 +695,31 @@
         <v>71</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>20240829</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>102</v>
+      </c>
+      <c r="C11" t="n">
+        <v>128</v>
+      </c>
+      <c r="D11" t="n">
+        <v>180</v>
+      </c>
+      <c r="E11" t="n">
+        <v>377</v>
+      </c>
+      <c r="F11" t="n">
+        <v>338</v>
+      </c>
+      <c r="G11" t="n">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,251 +473,26 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20240806</t>
+          <t>20240902</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="C2" t="n">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="D2" t="n">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="E2" t="n">
-        <v>516</v>
+        <v>445</v>
       </c>
       <c r="F2" t="n">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="G2" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>20240807</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>102</v>
-      </c>
-      <c r="C3" t="n">
-        <v>138</v>
-      </c>
-      <c r="D3" t="n">
-        <v>138</v>
-      </c>
-      <c r="E3" t="n">
-        <v>530</v>
-      </c>
-      <c r="F3" t="n">
-        <v>165</v>
-      </c>
-      <c r="G3" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>20240808</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>129</v>
-      </c>
-      <c r="C4" t="n">
-        <v>108</v>
-      </c>
-      <c r="D4" t="n">
-        <v>140</v>
-      </c>
-      <c r="E4" t="n">
-        <v>473</v>
-      </c>
-      <c r="F4" t="n">
-        <v>148</v>
-      </c>
-      <c r="G4" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>20240816</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>116</v>
-      </c>
-      <c r="C5" t="n">
-        <v>142</v>
-      </c>
-      <c r="D5" t="n">
-        <v>183</v>
-      </c>
-      <c r="E5" t="n">
-        <v>503</v>
-      </c>
-      <c r="F5" t="n">
-        <v>333</v>
-      </c>
-      <c r="G5" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>20240819</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>163</v>
-      </c>
-      <c r="C6" t="n">
-        <v>255</v>
-      </c>
-      <c r="D6" t="n">
-        <v>178</v>
-      </c>
-      <c r="E6" t="n">
-        <v>487</v>
-      </c>
-      <c r="F6" t="n">
-        <v>299</v>
-      </c>
-      <c r="G6" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>20240821</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>118</v>
-      </c>
-      <c r="C7" t="n">
-        <v>216</v>
-      </c>
-      <c r="D7" t="n">
-        <v>193</v>
-      </c>
-      <c r="E7" t="n">
-        <v>521</v>
-      </c>
-      <c r="F7" t="n">
-        <v>240</v>
-      </c>
-      <c r="G7" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>20240823</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>167</v>
-      </c>
-      <c r="C8" t="n">
-        <v>262</v>
-      </c>
-      <c r="D8" t="n">
-        <v>207</v>
-      </c>
-      <c r="E8" t="n">
-        <v>595</v>
-      </c>
-      <c r="F8" t="n">
-        <v>359</v>
-      </c>
-      <c r="G8" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>20240825</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>109</v>
-      </c>
-      <c r="C9" t="n">
-        <v>202</v>
-      </c>
-      <c r="D9" t="n">
-        <v>271</v>
-      </c>
-      <c r="E9" t="n">
-        <v>352</v>
-      </c>
-      <c r="F9" t="n">
-        <v>490</v>
-      </c>
-      <c r="G9" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>20240826</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>120</v>
-      </c>
-      <c r="C10" t="n">
-        <v>148</v>
-      </c>
-      <c r="D10" t="n">
-        <v>103</v>
-      </c>
-      <c r="E10" t="n">
-        <v>368</v>
-      </c>
-      <c r="F10" t="n">
-        <v>286</v>
-      </c>
-      <c r="G10" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>20240829</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>102</v>
-      </c>
-      <c r="C11" t="n">
-        <v>128</v>
-      </c>
-      <c r="D11" t="n">
-        <v>180</v>
-      </c>
-      <c r="E11" t="n">
-        <v>377</v>
-      </c>
-      <c r="F11" t="n">
-        <v>338</v>
-      </c>
-      <c r="G11" t="n">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,31 @@
         <v>84</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>20240903</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>104</v>
+      </c>
+      <c r="C3" t="n">
+        <v>147</v>
+      </c>
+      <c r="D3" t="n">
+        <v>154</v>
+      </c>
+      <c r="E3" t="n">
+        <v>410</v>
+      </c>
+      <c r="F3" t="n">
+        <v>119</v>
+      </c>
+      <c r="G3" t="n">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,56 @@
         <v>85</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>20240904</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>89</v>
+      </c>
+      <c r="E4" t="n">
+        <v>406</v>
+      </c>
+      <c r="F4" t="n">
+        <v>88</v>
+      </c>
+      <c r="G4" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>20240905</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>70</v>
+      </c>
+      <c r="C5" t="n">
+        <v>84</v>
+      </c>
+      <c r="D5" t="n">
+        <v>91</v>
+      </c>
+      <c r="E5" t="n">
+        <v>391</v>
+      </c>
+      <c r="F5" t="n">
+        <v>101</v>
+      </c>
+      <c r="G5" t="n">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,6 +570,31 @@
         <v>59</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>20240906</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>45</v>
+      </c>
+      <c r="C6" t="n">
+        <v>49</v>
+      </c>
+      <c r="D6" t="n">
+        <v>75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>402</v>
+      </c>
+      <c r="F6" t="n">
+        <v>66</v>
+      </c>
+      <c r="G6" t="n">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,31 @@
         <v>31</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>20240912</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>51</v>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
+        <v>82</v>
+      </c>
+      <c r="E7" t="n">
+        <v>369</v>
+      </c>
+      <c r="F7" t="n">
+        <v>67</v>
+      </c>
+      <c r="G7" t="n">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,6 +620,56 @@
         <v>40</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>20240920</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>52</v>
+      </c>
+      <c r="C8" t="n">
+        <v>90</v>
+      </c>
+      <c r="D8" t="n">
+        <v>99</v>
+      </c>
+      <c r="E8" t="n">
+        <v>161</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96</v>
+      </c>
+      <c r="G8" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>20240923</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>51</v>
+      </c>
+      <c r="C9" t="n">
+        <v>108</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>166</v>
+      </c>
+      <c r="F9" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,31 @@
         <v>48</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>20240924</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n">
+        <v>88</v>
+      </c>
+      <c r="D10" t="n">
+        <v>78</v>
+      </c>
+      <c r="E10" t="n">
+        <v>168</v>
+      </c>
+      <c r="F10" t="n">
+        <v>32</v>
+      </c>
+      <c r="G10" t="n">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -695,6 +695,56 @@
         <v>47</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>20240925</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>122</v>
+      </c>
+      <c r="C11" t="n">
+        <v>120</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118</v>
+      </c>
+      <c r="E11" t="n">
+        <v>189</v>
+      </c>
+      <c r="F11" t="n">
+        <v>104</v>
+      </c>
+      <c r="G11" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>20240926</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>125</v>
+      </c>
+      <c r="C12" t="n">
+        <v>81</v>
+      </c>
+      <c r="D12" t="n">
+        <v>83</v>
+      </c>
+      <c r="E12" t="n">
+        <v>218</v>
+      </c>
+      <c r="F12" t="n">
+        <v>85</v>
+      </c>
+      <c r="G12" t="n">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,276 +473,26 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20240902</t>
+          <t>20241002</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="C2" t="n">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>445</v>
+        <v>185</v>
       </c>
       <c r="F2" t="n">
-        <v>238</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>20240903</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>104</v>
-      </c>
-      <c r="C3" t="n">
-        <v>147</v>
-      </c>
-      <c r="D3" t="n">
-        <v>154</v>
-      </c>
-      <c r="E3" t="n">
-        <v>410</v>
-      </c>
-      <c r="F3" t="n">
-        <v>119</v>
-      </c>
-      <c r="G3" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>20240904</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>37</v>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89</v>
-      </c>
-      <c r="E4" t="n">
-        <v>406</v>
-      </c>
-      <c r="F4" t="n">
-        <v>88</v>
-      </c>
-      <c r="G4" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>20240905</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>70</v>
-      </c>
-      <c r="C5" t="n">
-        <v>84</v>
-      </c>
-      <c r="D5" t="n">
-        <v>91</v>
-      </c>
-      <c r="E5" t="n">
-        <v>391</v>
-      </c>
-      <c r="F5" t="n">
-        <v>101</v>
-      </c>
-      <c r="G5" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>20240906</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>45</v>
-      </c>
-      <c r="C6" t="n">
-        <v>49</v>
-      </c>
-      <c r="D6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E6" t="n">
-        <v>402</v>
-      </c>
-      <c r="F6" t="n">
-        <v>66</v>
-      </c>
-      <c r="G6" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>20240912</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>51</v>
-      </c>
-      <c r="C7" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" t="n">
-        <v>82</v>
-      </c>
-      <c r="E7" t="n">
-        <v>369</v>
-      </c>
-      <c r="F7" t="n">
-        <v>67</v>
-      </c>
-      <c r="G7" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>20240920</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>52</v>
-      </c>
-      <c r="C8" t="n">
-        <v>90</v>
-      </c>
-      <c r="D8" t="n">
-        <v>99</v>
-      </c>
-      <c r="E8" t="n">
-        <v>161</v>
-      </c>
-      <c r="F8" t="n">
-        <v>96</v>
-      </c>
-      <c r="G8" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>20240923</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>51</v>
-      </c>
-      <c r="C9" t="n">
-        <v>108</v>
-      </c>
-      <c r="D9" t="n">
-        <v>83</v>
-      </c>
-      <c r="E9" t="n">
-        <v>166</v>
-      </c>
-      <c r="F9" t="n">
-        <v>50</v>
-      </c>
-      <c r="G9" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>20240924</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>23</v>
-      </c>
-      <c r="C10" t="n">
-        <v>88</v>
-      </c>
-      <c r="D10" t="n">
-        <v>78</v>
-      </c>
-      <c r="E10" t="n">
-        <v>168</v>
-      </c>
-      <c r="F10" t="n">
-        <v>32</v>
-      </c>
-      <c r="G10" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>20240925</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>122</v>
-      </c>
-      <c r="C11" t="n">
-        <v>120</v>
-      </c>
-      <c r="D11" t="n">
-        <v>118</v>
-      </c>
-      <c r="E11" t="n">
-        <v>189</v>
-      </c>
-      <c r="F11" t="n">
-        <v>104</v>
-      </c>
-      <c r="G11" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>20240926</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>125</v>
-      </c>
-      <c r="C12" t="n">
-        <v>81</v>
-      </c>
-      <c r="D12" t="n">
-        <v>83</v>
-      </c>
-      <c r="E12" t="n">
-        <v>218</v>
-      </c>
-      <c r="F12" t="n">
-        <v>85</v>
-      </c>
-      <c r="G12" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,31 @@
         <v>68</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>20241008</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>41</v>
+      </c>
+      <c r="C3" t="n">
+        <v>88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>80</v>
+      </c>
+      <c r="E3" t="n">
+        <v>149</v>
+      </c>
+      <c r="F3" t="n">
+        <v>90</v>
+      </c>
+      <c r="G3" t="n">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,9 +438,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -473,54 +486,104 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20241002</t>
+          <t>20250324</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="F2" t="n">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="G2" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>20241008</t>
+          <t>20250326</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C3" t="n">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E3" t="n">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F3" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="G3" t="n">
-        <v>76</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>20250407</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>31</v>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191</v>
+      </c>
+      <c r="E4" t="n">
+        <v>131</v>
+      </c>
+      <c r="F4" t="n">
+        <v>68</v>
+      </c>
+      <c r="G4" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>20250408</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>173</v>
+      </c>
+      <c r="E5" t="n">
+        <v>114</v>
+      </c>
+      <c r="F5" t="n">
+        <v>46</v>
+      </c>
+      <c r="G5" t="n">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,6 +583,31 @@
         <v>87</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>20250409</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>27</v>
+      </c>
+      <c r="C6" t="n">
+        <v>128</v>
+      </c>
+      <c r="D6" t="n">
+        <v>174</v>
+      </c>
+      <c r="E6" t="n">
+        <v>123</v>
+      </c>
+      <c r="F6" t="n">
+        <v>63</v>
+      </c>
+      <c r="G6" t="n">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,126 +486,201 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>20250324</t>
+          <t>20241002</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="F2" t="n">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>20250326</t>
+          <t>20241008</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D3" t="n">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F3" t="n">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="G3" t="n">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>20250407</t>
+          <t>20250324</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="E4" t="n">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F4" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="G4" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>20250408</t>
+          <t>20250326</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D5" t="n">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="E5" t="n">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="F5" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G5" t="n">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>20250407</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>31</v>
+      </c>
+      <c r="C6" t="n">
+        <v>58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>191</v>
+      </c>
+      <c r="E6" t="n">
+        <v>131</v>
+      </c>
+      <c r="F6" t="n">
+        <v>68</v>
+      </c>
+      <c r="G6" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>20250408</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" t="n">
+        <v>55</v>
+      </c>
+      <c r="D7" t="n">
+        <v>173</v>
+      </c>
+      <c r="E7" t="n">
+        <v>114</v>
+      </c>
+      <c r="F7" t="n">
+        <v>46</v>
+      </c>
+      <c r="G7" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>20250409</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B8" t="n">
         <v>27</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C8" t="n">
         <v>128</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D8" t="n">
         <v>174</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E8" t="n">
         <v>123</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F8" t="n">
         <v>63</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G8" t="n">
         <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>20250410</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>47</v>
+      </c>
+      <c r="C9" t="n">
+        <v>72</v>
+      </c>
+      <c r="D9" t="n">
+        <v>223</v>
+      </c>
+      <c r="E9" t="n">
+        <v>131</v>
+      </c>
+      <c r="F9" t="n">
+        <v>60</v>
+      </c>
+      <c r="G9" t="n">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,6 +683,31 @@
         <v>145</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>20250415</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>42</v>
+      </c>
+      <c r="C10" t="n">
+        <v>57</v>
+      </c>
+      <c r="D10" t="n">
+        <v>266</v>
+      </c>
+      <c r="E10" t="n">
+        <v>145</v>
+      </c>
+      <c r="F10" t="n">
+        <v>55</v>
+      </c>
+      <c r="G10" t="n">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,6 +708,31 @@
         <v>115</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>20250416</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>47</v>
+      </c>
+      <c r="D11" t="n">
+        <v>231</v>
+      </c>
+      <c r="E11" t="n">
+        <v>109</v>
+      </c>
+      <c r="F11" t="n">
+        <v>26</v>
+      </c>
+      <c r="G11" t="n">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CMS/Pre_Site_Total_Alarms.xlsx
+++ b/CMS/Pre_Site_Total_Alarms.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,6 +733,31 @@
         <v>92</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>20250417</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>57</v>
+      </c>
+      <c r="C12" t="n">
+        <v>89</v>
+      </c>
+      <c r="D12" t="n">
+        <v>283</v>
+      </c>
+      <c r="E12" t="n">
+        <v>155</v>
+      </c>
+      <c r="F12" t="n">
+        <v>49</v>
+      </c>
+      <c r="G12" t="n">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
